--- a/ExplicitWait/testData.xlsx
+++ b/ExplicitWait/testData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sekhar\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sekhar\Git\ExplicitWait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF5EAA12-8D66-4830-8A9A-F2C321EA013C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5F8A56CD-9252-4E44-B37C-5A2C132965EF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -39,16 +39,16 @@
     <t>invalid</t>
   </si>
   <si>
-    <t>mngr1336</t>
-  </si>
-  <si>
-    <t>dAnavUq</t>
+    <t>mngr129789</t>
+  </si>
+  <si>
+    <t>hUbyneg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -460,11 +460,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -529,7 +529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -541,7 +541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
